--- a/analysis.xlsx
+++ b/analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyDev\deep learning\unity-ml-tennis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D510B99-8697-4621-937D-F8B89826FF5B}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D5313D2-1C15-4F1C-B55D-846EDB727B7C}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" activeTab="9" xr2:uid="{2A327F55-473D-496D-85C8-56AB1A15608F}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11295" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12347" uniqueCount="40">
   <si>
     <t>Episode</t>
   </si>
@@ -143,6 +143,19 @@
   <si>
     <t>use squared error instead of huber or MSE</t>
   </si>
+  <si>
+    <t>C1=0.5,</t>
+  </si>
+  <si>
+    <t>C2=0.01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total_loss = - (clipped_surrogate - self.C1 * value_loss + self.C2 * entropy).mean()
+                </t>
+  </si>
+  <si>
+    <t>entropy = -(new_log_probs.exp()*sampled_log_probs)</t>
+  </si>
 </sst>
 </file>
 
@@ -189,7 +202,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -197,6 +210,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -212,6 +226,157 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10242" name="AutoShape 2" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYUAAAEKCAYAAAD9xUlFAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADl0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uIDIuMi4zLCBodHRwOi8vbWF0cGxvdGxpYi5vcmcvIxREBQAAIABJREFUeJzt3XmcHVWZ//HPk85CWGRLWARCg8AoiyMQWYRR3Nl+MCozwjgIOk5GUEFmXr+ZgIqKww/cEWEEHEBADCCgBBIIYd+SkM5C9qWzd9buLJ3udHp/fn/cuje3b9+tu6vu0vf7fr36lbpVp6qeW50+T9WpU6fM3REREQEYUuwARESkdCgpiIhIgpKCiIgkKCmIiEiCkoKIiCQoKYiISIKSgoiIJCgpiIhIgpKCiIgkDC12AH01atQor66uLnYYIiJlZdasWQ3uPjpXubJLCtXV1dTU1BQ7DBGRsmJma/Ipp+YjERFJUFIQEZEEJQUREUlQUhARkQQlBRERSVBSEBGRBCUFERFJUFIQkYozv66ReXU7es1/bekW1m1rYcrCTfzmpeVFiKy37m5n/FPz+PXUZWxpao18f2X38JqIyED9n7veAmD17Rf1mH/1gzMZMXQIbZ3dAFz/meMLHluqJ2rW8djMdQBMnr+Rqf/+iUj3pysFEZEk8YRQKra3dCSm121viXx/SgoiIpKgpCAiIglKCiIikqCkICIiCUoKIlISdrS096l8Z1c3Ta0dPea1dnSxpamVzq78bhY37u6gq9szLm/t6KK1o2tP+ZYOtu9qp76pjea2zqzb3tHSjnvmbedrY+PupHiivwmupCAiRbdgfSMfuWUqT8+uy3ud6x6bwyk/erHHvLNue5kzbn2ZG554L69t/O2PX+SWZxdmXP6hm1/glB9N2VP+lhc59SdT+eitL3HyD6dkXK92SxMfuWUqf3p3bV5xZPLCgo08PC2v1yCERklBRIpuyaYmAN6qbch7ncnzN/WatyPovvnsexvy3s4zWcq6Q0dX38/2a7fsAuD1pfV9XjfZtBVbB7R+fygpiIhIgpKCiIgkRJYUzOwoM3vVzBab2UIzuz5NmfPMrNHM5gY/N0cVj4iI5Bbl2EedwH+4+2wz2w+YZWZT3X1RSrk33f3iCOMQEZE8RXal4O4b3X12MN0ELAaOiGp/IiIycAW5p2Bm1cCpwIw0i882s/fM7HkzO6kQ8YhIebv9+SWhbq+r2/n7u98OdZvlKvKhs81sX+Ap4LvuvjNl8WzgaHdvNrMLgb8CvcaqNbNxwDiAMWPGRByxiJS6e15fEer2drS0M3dd7/crVKJIrxTMbBixhPCouz+dutzdd7p7czA9GRhmZqPSlLvP3ce6+9jRo0dHGbKISEWLsveRAfcDi939VxnKHBaUw8zOCOIp/NMaIiIRGPggF4UXZfPROcCVwHwzmxvMuwkYA+Du9wCXAdeYWSewG7jcwxgsRETKymD7s4+d6oaxnZA21AeRJQV3fwvI+o3c/S7grqhiEJHyYtmrDCkAPdEsIiIJSgoiIpKgpCAiFS3K2xlTF22mpT37exdKjZKCiEiEBjp8dqEpKYiIRKjc+lUpKYiIRKjcetsqKYiIRMjL7FpBSUFEJEK6UhARqXDJj+CVWU5QUhCR4iu3inMwU1IQkZJRhKF+Ildu4zopKYiISIKSgohIhMrsQkFJQUQkSuqSKiIiCbpSEBHpp3KrQAcjJQURKbp4p6OnZtcVfN+Nuzsi3f5AEt0f3lkdWhz5UlIQEQlZ8ms0y+3iR0lBRCRkyc8m6DkFEZE+Kq9qs2/K7bspKYiIRKnMsoKSgohIhPScgoiIlC0lBRGRHLq7+3+239bZHWIk0VNSEBHJYdL8jfx66rJ+rXvXK7UhRxMtJQURkRx2d3Txm5eX92vd5rbOkKOJlpKCiIgkKCmIiITMyvhtQZElBTM7ysxeNbPFZrbQzK5PU8bM7E4zqzWzeWZ2WlTxiIhIbkMj3HYn8B/uPtvM9gNmmdlUd1+UVOYC4Pjg50zgd8G/IiKDQpmNchHdlYK7b3T32cF0E7AYOCKl2KXAwx4zHTjAzA6PKiYRKVFlVnEOZgW5p2Bm1cCpwIyURUcA65I+19E7cWBm48ysxsxq6uvrowpTRCS9ASStU47cP7w4CiDypGBm+wJPAd91952pi9Os0uvwu/t97j7W3ceOHj06ijBFRCLxuRMPLXYIfRJpUjCzYcQSwqPu/nSaInXAUUmfjwQ2RBmTiIhkFmXvIwPuBxa7+68yFJsIfDXohXQW0OjuG6OKSUREsouy99E5wJXAfDObG8y7CRgD4O73AJOBC4FaoAX4WoTxiIhIDpElBXd/i/T3DJLLOPCtqGIQEZG+0RPNIiIhK9/nmaNtPhIRyemaP87i+QWbQt/ulqZWDtlvrx7zXlmymWsfnd3nbbV2dvU7Dj28JiLSB1EkBIAZK7f1mveLKcto7ej9foNcYxVt2NEaWlylTklBRCqel9vpfISUFEREJEFJQUREEpQUREQi5GU22p+SgoiIJCgpiIhIgpKCiIgkKCmISMXo76uT+3pfoIxf0aykICIStuTHHsrtEQglBREZlMKsi62sRzPqGyUFERFJUFIQEZEEJQURKWtrtu6KfB/l9gDaQCgpiEhZ+8TPX4t8QLsJM9b2e91ySydKCiJSMTJ1Fc01dPbO1s4IoilNSgoiUvE0dPYeSgoiIiHTw2siIjIoKCmIiEiCkoKIiCQoKYhIpGas3Er1+ElsamzNq/zSTU0RRyTZKCmISKQenr4GgJmrt+VVftL8jVGGIzkoKYiISIKSgoiUvVJ+zKCUY0snsqRgZg+Y2RYzW5Bh+Xlm1mhmc4Ofm6OKRURE8jM0wm3/AbgLeDhLmTfd/eIIYxARkT6I7ErB3d8A8ruzJCKDXpm1ogxIRTzRbGbnmtnXgunRZnZMCPs/28zeM7PnzeykELYnIiWktaOLSfPC6000ZeEmXlu6JbTtSW95NR+Z2Q+BscDfAA8Cw4A/AucMYN+zgaPdvdnMLgT+ChyfYf/jgHEAY8aMGcAuRaSQ/vDO6lC392+PzAp1e4VQbu9iyPdK4QvAJcAuAHffAOw3kB27+053bw6mJwPDzGxUhrL3uftYdx87evTogexWRAqovbO72CH0kOldy7mGzq4k+SaFdo+NLesAZrbPQHdsZodZ8JswszOCWLYOdLsiItJ/+fY+esLM7gUOMLN/Bb4O/D7bCmY2ATgPGGVmdcAPiTU74e73AJcB15hZJ7AbuNw1qLnIoFLMv+i+VCeqevbIKym4+y/M7LPATmL3FW5296k51rkix/K7iHVZFZEKoIq3PORMCmZWBUxx988AWROBiIj0VG65MOc9BXfvAlrMbP8CxCMig0iunjfd3eHUmKVW7y7f3FzsEPot33sKrcB8M5tK0AMJwN2viyQqEakID7y9qtghDMiutk72GdG7Gr3t+SVFiCYc+SaFScGPiEholhT43Qlh9zxt7+xmnxHhbrPY8r3R/JCZDQdOCGYtdfeO6MISEZFiyPeJ5vOAh4DVgAFHmdlVwfhGIiIySOTbfPRL4HPuvhTAzE4AJgCnRxWYiIgUXr5PNA+LJwQAd19G8CCaiEgm5dYds68G49fL90qhxszuBx4JPn8FKL+RqUREJKt8rxSuARYC1wHXA4uAb0YVlIgUT1tnF9XjJ/HI9DWR7aO+qY3q8ZN4efHmyPbRF6f/90vFDqFk5JsUhgK/cfcvuvsXgDuBqujCEpFiaWyJdSy88+XlA95WpuaVRRt3ArC9ZfB3Yiy34T3yTQovAyOTPo8ElFpFpCSUW8VbyvJNCnvF330AEEzvHU1IIiLlYTAmo3yTwi4zOy3+wczGEhvuWkREBpF8ex99F/izmW0g1kz4fuDLkUUlIkU3CE+CJQ9ZrxTM7KNmdpi7zwQ+CDwOdAIvAOU9kpWIpKc3U1a0XM1H9wLtwfTZwE3A3cB24L4I4xKRAnF37nhpGasaduUu3PeNp5vsl7CG2ZbsciWFKnffFkx/GbjP3Z9y9x8Ax0UbmogUQn1zG3e8tJx//t8ZxQ4lq+mr9Ar3QsiZFMwsft/h08ArScvyvR8hIqUsOAFv7+oubhw5hHGPQy1jueWq2CcAr5tZA7HeRm8CmNlxQGPEsYlIUQ28FlaDT/ndsM+aFNz9VjN7GTgceNH3dModAnwn6uBEpPBM59MVLWcTkLtPTzNvWTThiEixRH1Gm+t9zQPbtoQl34fXRGSw0oWBJFFSEJGy0FmCXVJLL6KBU1IQkbLwm5fKs9W63BKHkoKIRCb5PsVAb2Av29ycu1AuprayXJQURCRQbue0EgUlBZEKV6guqFH2PpLwRJYUzOwBM9tiZgsyLDczu9PMas1sXvLQ3CIyOAz2RFBuD6blI8orhT8A52dZfgFwfPAzDvhdhLGISB+VWoVXrncDSu045hJZUnD3N4BtWYpcCjzsMdOBA8zs8KjiEZHs4pWX7sVWtmLeUzgCWJf0uS6YJyIV7or7pnPO7XvG33xt6Raa2joHvuGITtvX79hN9fhJvLhwUyTbL6RiJoV05yNpf2NmNs7Masyspr6+PuKwRCpTKV0hTFu5lfU79rzx9y9z1mctX+wmmvl1sfFBn5xVV9xAQlDMpFAHHJX0+UhgQ7qC7n6fu49197GjR48uSHAiEq5iV9xAaWW+ElXMpDAR+GrQC+ksoNHdNxYxHhFJEkYdXhKJoIDSfd1y64EV2YtyzGwCcB4wyszqgB8CwwDc/R5gMnAhUAu0AF+LKhYRyS1xo7m4YaRVijElG0wXIJElBXe/IsdyB74V1f5FJD+DqUKTgdMTzSISmfJqOBFQUhCRkE1dtJnH3l0LwPIwBrHLU3fK0No/eW5xr3lRm7poM6sbdhV0n2GLrPlIRMpLWNXnvz5cA8DlZ4zhpcWb92x/ADuwPNq4VtT3TEANzW3U1jdzwqH79X/HOcRvIidH92+PzOpZpswul3SlIFLhBssthXwuCgrxXbvLLQukUFIQEZEEJQURKXm5zvAzPQtQjJP21F2WW+8uJQURKYiBVI7l3SBTXpQURAQATzmtTv088O2Hurne2y9G6shjl+V2i0FJQaRC7Grr5N1VvUezT+3Zk09Pn0LLFdE7K7amnV+oRJF8zDq7uguyz6goKYhUiBsen8s/3juN+qa2HvPDviIohq89OJOlm5qKHQYAq7e2FDuEAVFSEKkQizbuBKC1oyvt8lK8QuiLHS0dOcuU+VcsCCUFEQFK/Iohj8q8mPEPplyjpCBSYVLrzkxXCCWcIspKuR1HJQWRCpFv00lUZ71RV47lVvmWKiUFERkUSrn1q5woKYhUmHJ7ExiA9fP6pVCJYjDdwFZSEKkQuSrWsOvP6vGTQt5idrc/v6TXvIenraF6/CSembseCD9J3Dp5MQBtneX9bEIyJQWRCjdYTnLb0zw0NiF4r8Nf56yPZJ/PzN0AQHNrZ+ZCZdaupaQgIiUvrOaZyJp5BktmRUlBRApkIM8RlNnJdllTUhCpMJkqWFW8/TeILhSUFEQqRaamk0zzSylJlHrvnnIfIiSZkoKI9DCI6reCyXbISii35kVJQaTCpFZS2a4IfvniUt5Z0RBpPKkeeGtVQfdXKFub27j+sTnsasvcU2nuuh385LlFuDuLNuwsYHR7KCmIVIhcFwDprhB++0ot//T7GZHEk0lzmkpzMFy83PHScp6Zu4GnZtdlLPP3d7/N/UFS/OoDhT3ucUoKIgKU1j2EqETWIzXkDRfzd6GkIFLhMt9oroAsUQB9OYylcD9HSUFEeujvOEOVLPQrhdhWw91oniJNCmZ2vpktNbNaMxufZvnVZlZvZnODn29EGY+ISDko5lXa0Kg2bGZVwN3AZ4E6YKaZTXT3RSlFH3f3b0cVh4j0lKnCUXNR8Rl7eocVqykpyiuFM4Bad1/p7u3AY8ClEe5PpOg6urp5ceGmyCrYBesbWbN1V7/WzfRC+eTmosbdHbydoQvqlqZWalZv6xHLfW+syPu79ueIvLm8np2tud+9XGzZmtwamtuYmXTc0tna3Mb0lVsTn4uZniO7UgCOANYlfa4DzkxT7ktm9nFgGXCDu69LLWBm44BxAGPGjIkgVJFw/PaVWu58eTkPXv1RPvnBQ0Lf/sW/fQuA1bdf1Kf1kiucbK754yzeWdG7bGtHFxf+5i0amtsS+47HMmrfEXzxtCP7FE++rrz/XT5+wmgO2W9EJNsPS7az+sdmruOxmeu48qyjM5a5/L7pLN/SzJASuJ0T5ZVCuq+XmgCfBard/cPAS8BD6Tbk7ve5+1h3Hzt69OiQwxQJT9322Nn41l3tRY6kp+1J8WQ7C126qSnt/K5up6G5Le2y+qb088OyYktzaNsq1eEolqd8x8HaJbUOOCrp85HAhuQC7r7V3eP/o34PnB5hPCKSQ3/qohKtZ8tSPGk5XrQ+YFEmhZnA8WZ2jJkNBy4HJiYXMLPDkz5eAiyOMB4RycLRzeZiK4XjH9k9BXfvNLNvA1OAKuABd19oZrcANe4+EbjOzC4BOoFtwNVRxSNSybJWNSV+pl8OVyJhN0u5F+97R3mjGXefDExOmXdz0vSNwI1RxiBSUMU/0QtN6F9lABssgRPoihFpUhCR3Lq7HQeqMnQ96ezqpmqIpT0bTV23q9vpdmeIxTpJDhlidHc7Xd17atV4BRtfN1mmujdbnRz1E9Bm0F3iWSGsI1AK31JJQSRM/agdrnrwXd5c3pC2m+nGxt2cfdsr/L8vnMI/ndm7O/b5v3mDZZubE+t+4KY9F+bv338v3rnx01z+++m8u6p3P/nP3/EGtfXNzP3B5xLzMtW9YVTKm3a29nvdv8xZP+D9N7d1Mmft9gFvJx0NiCcioXlzeeb3FaxqiD2o9szc9JXiss2Zu2tuaIxVwukSAsS6QaZWPpmfds64m7ytSXp4rhg3VL/9p9l0R7TbsL5O8naKNQaVkoJICYumYuhHDZZllXzPkvt7Nh3WMViwvjGU7RRC74a9wlFSEAlTVGei0Ww2752GUUklV+3FeIgsyn1G0Xw0GMc+EqlYYf09F7piyHijOYSsNKSfXyasYxDloRxMw43rRrNIBEqpO2cY+wjjRnOxnzfob1IqhmL2QtKVgkiYQq534psrVBtzf7qk5qvY4w5FOdhcGeWbnHSlUGJ+MWUpHzhkH1bV7+Log/fhS6dHM/qkxDz27loamtv49qeOB2JDNU+at5Hbv/Th/m0wqD0fnbGG15fV0+3OqH2G89C0Nfz4kpO46mPVbNvVzmk/mco9/3w65598WGLVbz06m0nzN7L69ov41dRljDlob/YdEfsTzTXA3o+fXUhza+8X3qezuqGF259fkvi8pSnWS6mprZN9hlcl5je17dne27V7ekg9M3c9SzIMnHf3q7UZ9zvh3bXcdOEH+c6EOZx/0mEZy6UKo759dWl9CFtJ77ibJtMZcrembnc2Nva/C+9AKCmUmLtS/qiUFKI1/un5AImkcOX97wL0PykE5qzdwZy1O3rM++HEhVz1sWrufX0FAN/846wezyZMmr8xMX3ny8sBOPe4UQCsrM/+DoUH316dd2w/enYhddt3Jz7/7rUVOde5/rG5aadT/XzK0qzbeW7eRl5bWs+yDEklnWJfYeQSdkKAnqPaFpqaj0RKWEHqwwHuo9QrbekbJQWRCpfcc6ZfQ2eHF0pRtl8KSimvKimIFFofKoAozsKzdSQq8SGGpACUFEQKrC992gsxHERyr5yoezkp6aSX+j+imM89KCmIFFhfKt5CtNeXUtNFWqUe3yCjpJBGzeptrNka6+3xwoKN7Grr5Ll5G2jt6Mq63oL1jSzZtJO1W1uYuXobry3dkvP9tSvqm5m7LtZLJf5+33ztbO1gysJNic/d3c4zc9f3GCY5bvnmJubXZR77ZfrKrdRtb+GZuet5YuY6ADq6urluwhwaWzp49r0NtHX2/P7bd7Xzx+lrmJbmRe8AbZ1dTHxvQ+Js9/Vl9bywYBNrt/b8nrVbmnhv3Q7+75/f457XV9DR1Z12e81tnVw3YQ6722NxTFm4iUemrcbdmbN2O78Ier7sbu/i4t++yW2TF7O1uY3Xlm7hhO8/z4+fXUh3t/P4zLXc8PhcdrTs6eFRPX4SzUldMG97fjG1W5qYtmIrK+ubeae2gVueXcSC9Y1MXbSZJ2fVMe7hGq68fwYt7Z3Mq9tB9fhJPJ1jNM8bn57Hva+vTHwe/9S8XmWqx09KTL+5fE9XykdnrOlRLp+riD+8varXvK27ev6ffKKmLjHd2pH+2Gdzy3OLqB4/qUfcmdz0l1hvrw196G6Zq+dVuXhkeuz3N2neRh6etpp/vHca976+gurxk3oN1Pfxn79a+AADVgqvf+uLsWPHek1NTb/Wvf+tVRw7ah8++cFDspaL/+c+5Yj9mb++kSMOGMn6Hbv5ypljuPULp+RcL9kHRu/Dy/9xXs51Zv/gs4z976m9/nP8w+lH8v2LT2T/kcN6rfuNh2by0uItvPmfn+Sog/bmiZp1/OeT8/j+RR/iG393bNr9pBueOV3sP/3SKfzXU/N7zLv6Y9W0dnRxw2dP4ND37cUX/+dtZgfdLtNt96cvLOF3r63ggavH8sm/OYRjbtwzrHNy+dR93/CZE7j+M8f32t4nfv5qYqTN//nKaVz76Oxe089951yufnBm4iXz8d9h3PChQ2jvjFV8ZxxzUMYRRPtivxFDe/TpL4TVt1/EpHkb+dafZhd0v1J8mf6GczGzWe4+Nle5inpO4SfPLQLyP6jxymT9jlif7uS+3flakedZzi9fXJp2WN8/z6rjoH2Hc+MFH+q1bO22WAW5qz1WIW0L+jbnujrJR2pCgNiZakeXs72lnXuvHJsY1jmTzcHZ4LZdHWmvXjKu15T+LDJ56OV4EgDYnnTG39zWmUgIQK8Y4wkhtr1wzkALnRDikr+3SFjUfNQHxXr7U6abTvGxXLq74+Vioooy/vXzPQxDgjuY3e6RjWM/EINpEDORsCgp9EHRkkKGuqsqqdJNFlWTYDwOT3zOXqlWJZKW9+nY9TX8bJV7yd9EHYDB/N2keJQU+qAvTSBhyvS3H08K8cfsE5V2xGHGt5+rTopfKXR535JCJkMzjGiWrXLMFmO5V6q60pEoKCn0Qak1gSSaj4IKN15JRB9mzySUSVXwvyv1xfH9NbRKlWCyck9qUpoq6kZz3Ly6HXQ7dHV3M7yqipHDqxi97wgadrVl7A4JsHZrC8s3N1G3fTcjhg1h1L4jaGrtZP+RQ9nanPmm3/SVWxm17whGDq9iv72Gsru9i2272tlr2J4RKRdt3Jlx/Zo125mzdjvd7gwxY69hVbS0dya6si5Y38hBew9nwYbYjfFlm5tYWd9MfVMbXd3O+5J6Li3c0MiIoUPYf+RwGnd3sKutM++z+I6uWLk3ljfw+rJ6GpK+8zsrGujqdkYOq6KhuZ1D3zeCGStjPXveqm3gyAP37rGtWWu2M6zK2N7S0Ws/Uxdt4oxjDuT9+4+ks9t5316x+DN1l5ycNJDc1EWbeyzbmWXk0GKNQhmGie9t4MlZdbkLivRRxXRJfXHhJsY9MiuCiERECifqLqkV03y0OqTuhyIixXLg3r2fVwpbxSSFo1KaL0SkvB1xwMi8yv3l2o9Fsv/lt17Aqtsu5NQxB6RdfuYxB7H69ouovfWCnNtafMv5rLrtQlbffhFXnnU0ALdcehKrb7+ox5XB3sOjb/GvmHsK5dVIJiK5DB+a3zltVH/7w4KeFLla4PMZv2pk0hvv4r0Ji/VO6UivFMzsfDNbama1ZjY+zfIRZvZ4sHyGmVVHGY+IDB751pmRd9HOMb+vVXt3kBSqonypdBaRJQUzqwLuBi4ATgSuMLMTU4r9C7Dd3Y8Dfg38NKp4yux+uojkkP+ZdIEe3AlJ52BNCsAZQK27r3T3duAx4NKUMpcCDwXTTwKftojGCo56nHgRKax868xiXSnEF/S1Rot3Ea8ahM1HRwDrkj7XBfPSlnH3TqARODiKYN5btyN3IREpGyOTnvPJJup3UuyVIY4Rw4aklMuvuh0WPKSZ7p5JvtsYiCj3kO43kZpU8ymDmY0zsxozq6mvr0+zSm7nn3x4v9YTqTQnH/E+PnjYfr3mf/6kQ0PbxznHHcyfvnEmB+8zPDHvlktP4pQj9s+4zjXnfaDH54e/fiZHH9y7V+G4jx/L9Z+ODb0+4V/P4tSjDuBfzj2mR5mfXfbhxPRVZx/dY9kDV8e68n/wsP34+jnHcN2njuu1j+e+c25S+Y8CcPPFJ3LrF07mL9d+jO986jh++Q9/C8SS0vcu/BDPfvtcvhHEMfboAxPr/+TvT+6x7Zsu/BDf/MQHuODkwxLzrjjjKAD+8LUzesUStsgeXjOzs4Efufvng883Arj7bUllpgRlppnZUGATMNqzBDWQ9ymIiFSqUnh4bSZwvJkdY2bDgcuBiSllJgJXBdOXAa9kSwgiIhKtyJ5TcPdOM/s2MAWoAh5w94VmdgtQ4+4TgfuBR8ysFthGLHGIiEiRRPrwmrtPBianzLs5aboV+IcoYxARkfxVzDAXIiKSm5KCiIgkKCmIiEiCkoKIiCQoKYiISELZvXnNzOqBNf1cfRTQEGI4haTYi0OxF165xg2lHfvR7j46V6GySwoDYWY1+TzRV4oUe3Eo9sIr17ihvGOPU/ORiIgkKCmIiEhCpSWF+4odwAAo9uJQ7IVXrnFDeccOVNg9BRERya7SrhRERCSLikkKZna+mS01s1ozG18C8RxlZq+a2WIzW2hm1wfzDzKzqWa2PPj3wGC+mdmdQfzzzOy0pG1dFZRfbmZXZdpnBN+hyszmmNlzwedjzGxGEMfjwZDpmNmI4HNtsLw6aRs3BvOXmtnnCxT3AWb2pJktCY7/2eVy3M3shuD/ywIzm2Bme5XqcTezB8xsi5ktSJoX2nE2s9PNbH6wzp1m4b1iLUPsPw/+z8wzs7+Y2QFJy9Iez0z1TqbfWUlw90H/Q2zo7hXAscBw4D3gxCLHdDhwWjC9H7AMOBH4GTA+mD8e+GkwfSHwPLG31Z0FzAjmHwSsDP49MJg+sEDGZIkNAAAGVElEQVTf4d+BPwHPBZ+fAC4Ppu8BrgmmrwXuCaYvBx4Ppk8MfhcjgGOC31FVAeJ+CPhGMD0cOKAcjjux19euAkYmHe+rS/W4Ax8HTgMWJM0L7TgD7wJnB+s8D1wQceyfA4YG0z9Nij3t8SRLvZPpd1YKP0UPoCBfMvYfZ0rS5xuBG4sdV0qMzwCfBZYChwfzDgeWBtP3AlcklV8aLL8CuDdpfo9yEcZ7JPAy8CngueAPsyHpjyZxzIm9U+PsYHpoUM5Sfw/J5SKM+33EKlZLmV/yx5097zQ/KDiOzwGfL+XjDlSnVKyhHOdg2ZKk+T3KRRF7yrIvAI8G02mPJxnqnWx/K6XwUynNR/E/pri6YF5JCC7rTwVmAIe6+0aA4N9DgmKZvkOxvtsdwH8C3cHng4Ed7t6ZJo5EjMHyxqB8MWI/FqgHHgyavv7XzPahDI67u68HfgGsBTYSO46zKI/jHhfWcT4imE6dXyhfJ3Z1An2PPdvfStFVSlJI19ZYEt2uzGxf4Cngu+6+M1vRNPM8y/zImNnFwBZ3n5U8O0scJRM7sTPm04DfufupwC5izRiZlEzsQfv7pcSaKN4P7ANckCWOkok9D32NtWjfwcy+B3QCj8ZnZYil5GLPR6UkhTrgqKTPRwIbihRLgpkNI5YQHnX3p4PZm83s8GD54cCWYH6m71CM73YOcImZrQYeI9aEdAdwgJnF3+aXHEcixmD5/sRev1qM2OuAOnefEXx+kliSKIfj/hlglbvXu3sH8DTwMcrjuMeFdZzrgunU+ZEKbnRfDHzFg7afHDGmm99A5t9Z0VVKUpgJHB/c8R9O7KbbxGIGFPSUuB9Y7O6/Slo0EYj3sLiK2L2G+PyvBr00zgIag8vvKcDnzOzA4Ezyc8G8yLj7je5+pLtXEzuWr7j7V4BXgcsyxB7/TpcF5T2Yf3nQS+YY4HhiNw+jjH0TsM7M/iaY9WlgEWVw3Ik1G51lZnsH/3/isZf8cU8SynEOljWZ2VnBsfhq0rYiYWbnA/8FXOLuLSnfKd3xTFvvBL+DTL+z4iv2TY1C/RDr3bCMWG+A75VAPOcSu2ScB8wNfi4k1t74MrA8+PegoLwBdwfxzwfGJm3r60Bt8PO1An+P89jT++hYYn8MtcCfgRHB/L2Cz7XB8mOT1v9e8J2WEmLvkRwxfwSoCY79X4n1aimL4w78GFgCLAAeIdbjpSSPOzCB2L2PDmJnzf8S5nEGxgbHYQVwFymdByKIvZbYPYL43+s9uY4nGeqdTL+zUvjRE80iIpJQKc1HIiKSByUFERFJUFIQEZEEJQUREUlQUhARkQQlBakYZtZlZnOTfrKOlmtm3zSzr4aw39VmNqof633ezH4U9NGfPNA4RPIxNHcRkUFjt7t/JN/C7n5PlMHk4e+IPeT0ceDtIsciFUJJQSpeMFzH48Ang1n/5O61ZvYjoNndf2Fm1wHfJDbmzSJ3v9zMDgIeIPYgUgswzt3nmdnBxB5+Gk3sASVL2tc/A9cRG0p5BnCtu3elxPNlYqNpHktsrKNDgZ1mdqa7XxLFMRCJU/ORVJKRKc1HX05attPdzyD2ZOwdadYdD5zq7h8mlhwg9nTxnGDeTcDDwfwfAm95bMC9icAYADP7EPBl4JzgiqUL+Erqjtz9cfaM5X8Ksad2T1VCkELQlYJUkmzNRxOS/v11muXzgEfN7K/EhsaA2FAlXwJw91fM7GAz259Yc88Xg/mTzGx7UP7TwOnAzOAlYSPZMyBcquOJDY0AsLe7N+Xx/UQGTElBJMYzTMddRKyyvwT4gZmdRPYhkNNtw4CH3P3GbIGYWQ0wChhqZouAw81sLvAdd38z+9cQGRg1H4nEfDnp32nJC8xsCHCUu79K7MVCBwD7Am8QNP+Y2XlAg8feiZE8/wJiA+5BbAC4y8zskGDZQWZ2dGog7j4WmETsfsLPiA2k9hElBCkEXSlIJRkZnHHHveDu8W6pI8xsBrETpStS1qsC/hg0DRnwa3ffEdyIftDM5hG70RwfEvrHwAQzmw28TmzIa9x9kZl9H3gxSDQdwLeANWliPY3YDelrgV+lWS4SCY2SKhUv6H001t0bih2LSLGp+UhERBJ0pSAiIgm6UhARkQQlBRERSVBSEBGRBCUFERFJUFIQEZEEJQUREUn4/+4/ImyXZbrQAAAAAElFTkSuQmCC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{005B591D-D2BB-4713-84A7-C45735D3EFBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6393180" y="2743200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10243" name="AutoShape 3" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAYUAAAEKCAYAAAD9xUlFAAAABHNCSVQICAgIfAhkiAAAAAlwSFlzAAALEgAACxIB0t1+/AAAADl0RVh0U29mdHdhcmUAbWF0cGxvdGxpYiB2ZXJzaW9uIDIuMi4zLCBodHRwOi8vbWF0cGxvdGxpYi5vcmcvIxREBQAAIABJREFUeJzt3XmcHVWZ//HPk85CWGRLWARCg8AoiyMQWYRR3Nl+MCozwjgIOk5GUEFmXr+ZgIqKww/cEWEEHEBADCCgBBIIYd+SkM5C9qWzd9buLJ3udHp/fn/cuje3b9+tu6vu0vf7fr36lbpVp6qeW50+T9WpU6fM3REREQEYUuwARESkdCgpiIhIgpKCiIgkKCmIiEiCkoKIiCQoKYiISIKSgoiIJCgpiIhIgpKCiIgkDC12AH01atQor66uLnYYIiJlZdasWQ3uPjpXubJLCtXV1dTU1BQ7DBGRsmJma/Ipp+YjERFJUFIQEZEEJQUREUlQUhARkQQlBRERSVBSEBGRBCUFERFJUFIQkYozv66ReXU7es1/bekW1m1rYcrCTfzmpeVFiKy37m5n/FPz+PXUZWxpao18f2X38JqIyED9n7veAmD17Rf1mH/1gzMZMXQIbZ3dAFz/meMLHluqJ2rW8djMdQBMnr+Rqf/+iUj3pysFEZEk8YRQKra3dCSm121viXx/SgoiIpKgpCAiIglKCiIikqCkICIiCUoKIlISdrS096l8Z1c3Ta0dPea1dnSxpamVzq78bhY37u6gq9szLm/t6KK1o2tP+ZYOtu9qp76pjea2zqzb3tHSjnvmbedrY+PupHiivwmupCAiRbdgfSMfuWUqT8+uy3ud6x6bwyk/erHHvLNue5kzbn2ZG554L69t/O2PX+SWZxdmXP6hm1/glB9N2VP+lhc59SdT+eitL3HyD6dkXK92SxMfuWUqf3p3bV5xZPLCgo08PC2v1yCERklBRIpuyaYmAN6qbch7ncnzN/WatyPovvnsexvy3s4zWcq6Q0dX38/2a7fsAuD1pfV9XjfZtBVbB7R+fygpiIhIgpKCiIgkRJYUzOwoM3vVzBab2UIzuz5NmfPMrNHM5gY/N0cVj4iI5Bbl2EedwH+4+2wz2w+YZWZT3X1RSrk33f3iCOMQEZE8RXal4O4b3X12MN0ELAaOiGp/IiIycAW5p2Bm1cCpwIw0i882s/fM7HkzO6kQ8YhIebv9+SWhbq+r2/n7u98OdZvlKvKhs81sX+Ap4LvuvjNl8WzgaHdvNrMLgb8CvcaqNbNxwDiAMWPGRByxiJS6e15fEer2drS0M3dd7/crVKJIrxTMbBixhPCouz+dutzdd7p7czA9GRhmZqPSlLvP3ce6+9jRo0dHGbKISEWLsveRAfcDi939VxnKHBaUw8zOCOIp/NMaIiIRGPggF4UXZfPROcCVwHwzmxvMuwkYA+Du9wCXAdeYWSewG7jcwxgsRETKymD7s4+d6oaxnZA21AeRJQV3fwvI+o3c/S7grqhiEJHyYtmrDCkAPdEsIiIJSgoiIpKgpCAiFS3K2xlTF22mpT37exdKjZKCiEiEBjp8dqEpKYiIRKjc+lUpKYiIRKjcetsqKYiIRMjL7FpBSUFEJEK6UhARqXDJj+CVWU5QUhCR4iu3inMwU1IQkZJRhKF+Ildu4zopKYiISIKSgohIhMrsQkFJQUQkSuqSKiIiCbpSEBHpp3KrQAcjJQURKbp4p6OnZtcVfN+Nuzsi3f5AEt0f3lkdWhz5UlIQEQlZ8ms0y+3iR0lBRCRkyc8m6DkFEZE+Kq9qs2/K7bspKYiIRKnMsoKSgohIhPScgoiIlC0lBRGRHLq7+3+239bZHWIk0VNSEBHJYdL8jfx66rJ+rXvXK7UhRxMtJQURkRx2d3Txm5eX92vd5rbOkKOJlpKCiIgkKCmIiITMyvhtQZElBTM7ysxeNbPFZrbQzK5PU8bM7E4zqzWzeWZ2WlTxiIhIbkMj3HYn8B/uPtvM9gNmmdlUd1+UVOYC4Pjg50zgd8G/IiKDQpmNchHdlYK7b3T32cF0E7AYOCKl2KXAwx4zHTjAzA6PKiYRKVFlVnEOZgW5p2Bm1cCpwIyURUcA65I+19E7cWBm48ysxsxq6uvrowpTRCS9ASStU47cP7w4CiDypGBm+wJPAd91952pi9Os0uvwu/t97j7W3ceOHj06ijBFRCLxuRMPLXYIfRJpUjCzYcQSwqPu/nSaInXAUUmfjwQ2RBmTiIhkFmXvIwPuBxa7+68yFJsIfDXohXQW0OjuG6OKSUREsouy99E5wJXAfDObG8y7CRgD4O73AJOBC4FaoAX4WoTxiIhIDpElBXd/i/T3DJLLOPCtqGIQEZG+0RPNIiIhK9/nmaNtPhIRyemaP87i+QWbQt/ulqZWDtlvrx7zXlmymWsfnd3nbbV2dvU7Dj28JiLSB1EkBIAZK7f1mveLKcto7ej9foNcYxVt2NEaWlylTklBRCqel9vpfISUFEREJEFJQUREEpQUREQi5GU22p+SgoiIJCgpiIhIgpKCiIgkKCmISMXo76uT+3pfoIxf0aykICIStuTHHsrtEQglBREZlMKsi62sRzPqGyUFERFJUFIQEZEEJQURKWtrtu6KfB/l9gDaQCgpiEhZ+8TPX4t8QLsJM9b2e91ySydKCiJSMTJ1Fc01dPbO1s4IoilNSgoiUvE0dPYeSgoiIiHTw2siIjIoKCmIiEiCkoKIiCQoKYhIpGas3Er1+ElsamzNq/zSTU0RRyTZKCmISKQenr4GgJmrt+VVftL8jVGGIzkoKYiISIKSgoiUvVJ+zKCUY0snsqRgZg+Y2RYzW5Bh+Xlm1mhmc4Ofm6OKRURE8jM0wm3/AbgLeDhLmTfd/eIIYxARkT6I7ErB3d8A8ruzJCKDXpm1ogxIRTzRbGbnmtnXgunRZnZMCPs/28zeM7PnzeykELYnIiWktaOLSfPC6000ZeEmXlu6JbTtSW95NR+Z2Q+BscDfAA8Cw4A/AucMYN+zgaPdvdnMLgT+ChyfYf/jgHEAY8aMGcAuRaSQ/vDO6lC392+PzAp1e4VQbu9iyPdK4QvAJcAuAHffAOw3kB27+053bw6mJwPDzGxUhrL3uftYdx87evTogexWRAqovbO72CH0kOldy7mGzq4k+SaFdo+NLesAZrbPQHdsZodZ8JswszOCWLYOdLsiItJ/+fY+esLM7gUOMLN/Bb4O/D7bCmY2ATgPGGVmdcAPiTU74e73AJcB15hZJ7AbuNw1qLnIoFLMv+i+VCeqevbIKym4+y/M7LPATmL3FW5296k51rkix/K7iHVZFZEKoIq3PORMCmZWBUxx988AWROBiIj0VG65MOc9BXfvAlrMbP8CxCMig0iunjfd3eHUmKVW7y7f3FzsEPot33sKrcB8M5tK0AMJwN2viyQqEakID7y9qtghDMiutk72GdG7Gr3t+SVFiCYc+SaFScGPiEholhT43Qlh9zxt7+xmnxHhbrPY8r3R/JCZDQdOCGYtdfeO6MISEZFiyPeJ5vOAh4DVgAFHmdlVwfhGIiIySOTbfPRL4HPuvhTAzE4AJgCnRxWYiIgUXr5PNA+LJwQAd19G8CCaiEgm5dYds68G49fL90qhxszuBx4JPn8FKL+RqUREJKt8rxSuARYC1wHXA4uAb0YVlIgUT1tnF9XjJ/HI9DWR7aO+qY3q8ZN4efHmyPbRF6f/90vFDqFk5JsUhgK/cfcvuvsXgDuBqujCEpFiaWyJdSy88+XlA95WpuaVRRt3ArC9ZfB3Yiy34T3yTQovAyOTPo8ElFpFpCSUW8VbyvJNCnvF330AEEzvHU1IIiLlYTAmo3yTwi4zOy3+wczGEhvuWkREBpF8ex99F/izmW0g1kz4fuDLkUUlIkU3CE+CJQ9ZrxTM7KNmdpi7zwQ+CDwOdAIvAOU9kpWIpKc3U1a0XM1H9wLtwfTZwE3A3cB24L4I4xKRAnF37nhpGasaduUu3PeNp5vsl7CG2ZbsciWFKnffFkx/GbjP3Z9y9x8Ax0UbmogUQn1zG3e8tJx//t8ZxQ4lq+mr9Ar3QsiZFMwsft/h08ArScvyvR8hIqUsOAFv7+oubhw5hHGPQy1jueWq2CcAr5tZA7HeRm8CmNlxQGPEsYlIUQ28FlaDT/ndsM+aFNz9VjN7GTgceNH3dModAnwn6uBEpPBM59MVLWcTkLtPTzNvWTThiEixRH1Gm+t9zQPbtoQl34fXRGSw0oWBJFFSEJGy0FmCXVJLL6KBU1IQkbLwm5fKs9W63BKHkoKIRCb5PsVAb2Av29ycu1AuprayXJQURCRQbue0EgUlBZEKV6guqFH2PpLwRJYUzOwBM9tiZgsyLDczu9PMas1sXvLQ3CIyOAz2RFBuD6blI8orhT8A52dZfgFwfPAzDvhdhLGISB+VWoVXrncDSu045hJZUnD3N4BtWYpcCjzsMdOBA8zs8KjiEZHs4pWX7sVWtmLeUzgCWJf0uS6YJyIV7or7pnPO7XvG33xt6Raa2joHvuGITtvX79hN9fhJvLhwUyTbL6RiJoV05yNpf2NmNs7Masyspr6+PuKwRCpTKV0hTFu5lfU79rzx9y9z1mctX+wmmvl1sfFBn5xVV9xAQlDMpFAHHJX0+UhgQ7qC7n6fu49197GjR48uSHAiEq5iV9xAaWW+ElXMpDAR+GrQC+ksoNHdNxYxHhFJEkYdXhKJoIDSfd1y64EV2YtyzGwCcB4wyszqgB8CwwDc/R5gMnAhUAu0AF+LKhYRyS1xo7m4YaRVijElG0wXIJElBXe/IsdyB74V1f5FJD+DqUKTgdMTzSISmfJqOBFQUhCRkE1dtJnH3l0LwPIwBrHLU3fK0No/eW5xr3lRm7poM6sbdhV0n2GLrPlIRMpLWNXnvz5cA8DlZ4zhpcWb92x/ADuwPNq4VtT3TEANzW3U1jdzwqH79X/HOcRvIidH92+PzOpZpswul3SlIFLhBssthXwuCgrxXbvLLQukUFIQEZEEJQURKXm5zvAzPQtQjJP21F2WW+8uJQURKYiBVI7l3SBTXpQURAQATzmtTv088O2Hurne2y9G6shjl+V2i0FJQaRC7Grr5N1VvUezT+3Zk09Pn0LLFdE7K7amnV+oRJF8zDq7uguyz6goKYhUiBsen8s/3juN+qa2HvPDviIohq89OJOlm5qKHQYAq7e2FDuEAVFSEKkQizbuBKC1oyvt8lK8QuiLHS0dOcuU+VcsCCUFEQFK/Iohj8q8mPEPplyjpCBSYVLrzkxXCCWcIspKuR1HJQWRCpFv00lUZ71RV47lVvmWKiUFERkUSrn1q5woKYhUmHJ7ExiA9fP6pVCJYjDdwFZSEKkQuSrWsOvP6vGTQt5idrc/v6TXvIenraF6/CSembseCD9J3Dp5MQBtneX9bEIyJQWRCjdYTnLb0zw0NiF4r8Nf56yPZJ/PzN0AQHNrZ+ZCZdaupaQgIiUvrOaZyJp5BktmRUlBRApkIM8RlNnJdllTUhCpMJkqWFW8/TeILhSUFEQqRaamk0zzSylJlHrvnnIfIiSZkoKI9DCI6reCyXbISii35kVJQaTCpFZS2a4IfvniUt5Z0RBpPKkeeGtVQfdXKFub27j+sTnsasvcU2nuuh385LlFuDuLNuwsYHR7KCmIVIhcFwDprhB++0ot//T7GZHEk0lzmkpzMFy83PHScp6Zu4GnZtdlLPP3d7/N/UFS/OoDhT3ucUoKIgKU1j2EqETWIzXkDRfzd6GkIFLhMt9oroAsUQB9OYylcD9HSUFEeujvOEOVLPQrhdhWw91oniJNCmZ2vpktNbNaMxufZvnVZlZvZnODn29EGY+ISDko5lXa0Kg2bGZVwN3AZ4E6YKaZTXT3RSlFH3f3b0cVh4j0lKnCUXNR8Rl7eocVqykpyiuFM4Bad1/p7u3AY8ClEe5PpOg6urp5ceGmyCrYBesbWbN1V7/WzfRC+eTmosbdHbydoQvqlqZWalZv6xHLfW+syPu79ueIvLm8np2tud+9XGzZmtwamtuYmXTc0tna3Mb0lVsTn4uZniO7UgCOANYlfa4DzkxT7ktm9nFgGXCDu69LLWBm44BxAGPGjIkgVJFw/PaVWu58eTkPXv1RPvnBQ0Lf/sW/fQuA1bdf1Kf1kiucbK754yzeWdG7bGtHFxf+5i0amtsS+47HMmrfEXzxtCP7FE++rrz/XT5+wmgO2W9EJNsPS7az+sdmruOxmeu48qyjM5a5/L7pLN/SzJASuJ0T5ZVCuq+XmgCfBard/cPAS8BD6Tbk7ve5+1h3Hzt69OiQwxQJT9322Nn41l3tRY6kp+1J8WQ7C126qSnt/K5up6G5Le2y+qb088OyYktzaNsq1eEolqd8x8HaJbUOOCrp85HAhuQC7r7V3eP/o34PnB5hPCKSQ3/qohKtZ8tSPGk5XrQ+YFEmhZnA8WZ2jJkNBy4HJiYXMLPDkz5eAiyOMB4RycLRzeZiK4XjH9k9BXfvNLNvA1OAKuABd19oZrcANe4+EbjOzC4BOoFtwNVRxSNSybJWNSV+pl8OVyJhN0u5F+97R3mjGXefDExOmXdz0vSNwI1RxiBSUMU/0QtN6F9lABssgRPoihFpUhCR3Lq7HQeqMnQ96ezqpmqIpT0bTV23q9vpdmeIxTpJDhlidHc7Xd17atV4BRtfN1mmujdbnRz1E9Bm0F3iWSGsI1AK31JJQSRM/agdrnrwXd5c3pC2m+nGxt2cfdsr/L8vnMI/ndm7O/b5v3mDZZubE+t+4KY9F+bv338v3rnx01z+++m8u6p3P/nP3/EGtfXNzP3B5xLzMtW9YVTKm3a29nvdv8xZP+D9N7d1Mmft9gFvJx0NiCcioXlzeeb3FaxqiD2o9szc9JXiss2Zu2tuaIxVwukSAsS6QaZWPpmfds64m7ytSXp4rhg3VL/9p9l0R7TbsL5O8naKNQaVkoJICYumYuhHDZZllXzPkvt7Nh3WMViwvjGU7RRC74a9wlFSEAlTVGei0Ww2752GUUklV+3FeIgsyn1G0Xw0GMc+EqlYYf09F7piyHijOYSsNKSfXyasYxDloRxMw43rRrNIBEqpO2cY+wjjRnOxnzfob1IqhmL2QtKVgkiYQq534psrVBtzf7qk5qvY4w5FOdhcGeWbnHSlUGJ+MWUpHzhkH1bV7+Log/fhS6dHM/qkxDz27loamtv49qeOB2JDNU+at5Hbv/Th/m0wqD0fnbGG15fV0+3OqH2G89C0Nfz4kpO46mPVbNvVzmk/mco9/3w65598WGLVbz06m0nzN7L69ov41dRljDlob/YdEfsTzTXA3o+fXUhza+8X3qezuqGF259fkvi8pSnWS6mprZN9hlcl5je17dne27V7ekg9M3c9SzIMnHf3q7UZ9zvh3bXcdOEH+c6EOZx/0mEZy6UKo759dWl9CFtJ77ibJtMZcrembnc2Nva/C+9AKCmUmLtS/qiUFKI1/un5AImkcOX97wL0PykE5qzdwZy1O3rM++HEhVz1sWrufX0FAN/846wezyZMmr8xMX3ny8sBOPe4UQCsrM/+DoUH316dd2w/enYhddt3Jz7/7rUVOde5/rG5aadT/XzK0qzbeW7eRl5bWs+yDEklnWJfYeQSdkKAnqPaFpqaj0RKWEHqwwHuo9QrbekbJQWRCpfcc6ZfQ2eHF0pRtl8KSimvKimIFFofKoAozsKzdSQq8SGGpACUFEQKrC992gsxHERyr5yoezkp6aSX+j+imM89KCmIFFhfKt5CtNeXUtNFWqUe3yCjpJBGzeptrNka6+3xwoKN7Grr5Ll5G2jt6Mq63oL1jSzZtJO1W1uYuXobry3dkvP9tSvqm5m7LtZLJf5+33ztbO1gysJNic/d3c4zc9f3GCY5bvnmJubXZR77ZfrKrdRtb+GZuet5YuY6ADq6urluwhwaWzp49r0NtHX2/P7bd7Xzx+lrmJbmRe8AbZ1dTHxvQ+Js9/Vl9bywYBNrt/b8nrVbmnhv3Q7+75/f457XV9DR1Z12e81tnVw3YQ6722NxTFm4iUemrcbdmbN2O78Ier7sbu/i4t++yW2TF7O1uY3Xlm7hhO8/z4+fXUh3t/P4zLXc8PhcdrTs6eFRPX4SzUldMG97fjG1W5qYtmIrK+ubeae2gVueXcSC9Y1MXbSZJ2fVMe7hGq68fwYt7Z3Mq9tB9fhJPJ1jNM8bn57Hva+vTHwe/9S8XmWqx09KTL+5fE9XykdnrOlRLp+riD+8varXvK27ev6ffKKmLjHd2pH+2Gdzy3OLqB4/qUfcmdz0l1hvrw196G6Zq+dVuXhkeuz3N2neRh6etpp/vHca976+gurxk3oN1Pfxn79a+AADVgqvf+uLsWPHek1NTb/Wvf+tVRw7ah8++cFDspaL/+c+5Yj9mb++kSMOGMn6Hbv5ypljuPULp+RcL9kHRu/Dy/9xXs51Zv/gs4z976m9/nP8w+lH8v2LT2T/kcN6rfuNh2by0uItvPmfn+Sog/bmiZp1/OeT8/j+RR/iG393bNr9pBueOV3sP/3SKfzXU/N7zLv6Y9W0dnRxw2dP4ND37cUX/+dtZgfdLtNt96cvLOF3r63ggavH8sm/OYRjbtwzrHNy+dR93/CZE7j+M8f32t4nfv5qYqTN//nKaVz76Oxe089951yufnBm4iXz8d9h3PChQ2jvjFV8ZxxzUMYRRPtivxFDe/TpL4TVt1/EpHkb+dafZhd0v1J8mf6GczGzWe4+Nle5inpO4SfPLQLyP6jxymT9jlif7uS+3flakedZzi9fXJp2WN8/z6rjoH2Hc+MFH+q1bO22WAW5qz1WIW0L+jbnujrJR2pCgNiZakeXs72lnXuvHJsY1jmTzcHZ4LZdHWmvXjKu15T+LDJ56OV4EgDYnnTG39zWmUgIQK8Y4wkhtr1wzkALnRDikr+3SFjUfNQHxXr7U6abTvGxXLq74+Vioooy/vXzPQxDgjuY3e6RjWM/EINpEDORsCgp9EHRkkKGuqsqqdJNFlWTYDwOT3zOXqlWJZKW9+nY9TX8bJV7yd9EHYDB/N2keJQU+qAvTSBhyvS3H08K8cfsE5V2xGHGt5+rTopfKXR535JCJkMzjGiWrXLMFmO5V6q60pEoKCn0Qak1gSSaj4IKN15JRB9mzySUSVXwvyv1xfH9NbRKlWCyck9qUpoq6kZz3Ly6HXQ7dHV3M7yqipHDqxi97wgadrVl7A4JsHZrC8s3N1G3fTcjhg1h1L4jaGrtZP+RQ9nanPmm3/SVWxm17whGDq9iv72Gsru9i2272tlr2J4RKRdt3Jlx/Zo125mzdjvd7gwxY69hVbS0dya6si5Y38hBew9nwYbYjfFlm5tYWd9MfVMbXd3O+5J6Li3c0MiIoUPYf+RwGnd3sKutM++z+I6uWLk3ljfw+rJ6GpK+8zsrGujqdkYOq6KhuZ1D3zeCGStjPXveqm3gyAP37rGtWWu2M6zK2N7S0Ws/Uxdt4oxjDuT9+4+ks9t5316x+DN1l5ycNJDc1EWbeyzbmWXk0GKNQhmGie9t4MlZdbkLivRRxXRJfXHhJsY9MiuCiERECifqLqkV03y0OqTuhyIixXLg3r2fVwpbxSSFo1KaL0SkvB1xwMi8yv3l2o9Fsv/lt17Aqtsu5NQxB6RdfuYxB7H69ouovfWCnNtafMv5rLrtQlbffhFXnnU0ALdcehKrb7+ox5XB3sOjb/GvmHsK5dVIJiK5DB+a3zltVH/7w4KeFLla4PMZv2pk0hvv4r0Ji/VO6UivFMzsfDNbama1ZjY+zfIRZvZ4sHyGmVVHGY+IDB751pmRd9HOMb+vVXt3kBSqonypdBaRJQUzqwLuBi4ATgSuMLMTU4r9C7Dd3Y8Dfg38NKp4yux+uojkkP+ZdIEe3AlJ52BNCsAZQK27r3T3duAx4NKUMpcCDwXTTwKftojGCo56nHgRKax868xiXSnEF/S1Rot3Ea8ahM1HRwDrkj7XBfPSlnH3TqARODiKYN5btyN3IREpGyOTnvPJJup3UuyVIY4Rw4aklMuvuh0WPKSZ7p5JvtsYiCj3kO43kZpU8ymDmY0zsxozq6mvr0+zSm7nn3x4v9YTqTQnH/E+PnjYfr3mf/6kQ0PbxznHHcyfvnEmB+8zPDHvlktP4pQj9s+4zjXnfaDH54e/fiZHH9y7V+G4jx/L9Z+ODb0+4V/P4tSjDuBfzj2mR5mfXfbhxPRVZx/dY9kDV8e68n/wsP34+jnHcN2njuu1j+e+c25S+Y8CcPPFJ3LrF07mL9d+jO986jh++Q9/C8SS0vcu/BDPfvtcvhHEMfboAxPr/+TvT+6x7Zsu/BDf/MQHuODkwxLzrjjjKAD+8LUzesUStsgeXjOzs4Efufvng883Arj7bUllpgRlppnZUGATMNqzBDWQ9ymIiFSqUnh4bSZwvJkdY2bDgcuBiSllJgJXBdOXAa9kSwgiIhKtyJ5TcPdOM/s2MAWoAh5w94VmdgtQ4+4TgfuBR8ysFthGLHGIiEiRRPrwmrtPBianzLs5aboV+IcoYxARkfxVzDAXIiKSm5KCiIgkKCmIiEiCkoKIiCQoKYiISELZvXnNzOqBNf1cfRTQEGI4haTYi0OxF165xg2lHfvR7j46V6GySwoDYWY1+TzRV4oUe3Eo9sIr17ihvGOPU/ORiIgkKCmIiEhCpSWF+4odwAAo9uJQ7IVXrnFDeccOVNg9BRERya7SrhRERCSLikkKZna+mS01s1ozG18C8RxlZq+a2WIzW2hm1wfzDzKzqWa2PPj3wGC+mdmdQfzzzOy0pG1dFZRfbmZXZdpnBN+hyszmmNlzwedjzGxGEMfjwZDpmNmI4HNtsLw6aRs3BvOXmtnnCxT3AWb2pJktCY7/2eVy3M3shuD/ywIzm2Bme5XqcTezB8xsi5ktSJoX2nE2s9PNbH6wzp1m4b1iLUPsPw/+z8wzs7+Y2QFJy9Iez0z1TqbfWUlw90H/Q2zo7hXAscBw4D3gxCLHdDhwWjC9H7AMOBH4GTA+mD8e+GkwfSHwPLG31Z0FzAjmHwSsDP49MJg+sEDGZIkNAAAGVElEQVTf4d+BPwHPBZ+fAC4Ppu8BrgmmrwXuCaYvBx4Ppk8MfhcjgGOC31FVAeJ+CPhGMD0cOKAcjjux19euAkYmHe+rS/W4Ax8HTgMWJM0L7TgD7wJnB+s8D1wQceyfA4YG0z9Nij3t8SRLvZPpd1YKP0UPoCBfMvYfZ0rS5xuBG4sdV0qMzwCfBZYChwfzDgeWBtP3AlcklV8aLL8CuDdpfo9yEcZ7JPAy8CngueAPsyHpjyZxzIm9U+PsYHpoUM5Sfw/J5SKM+33EKlZLmV/yx5097zQ/KDiOzwGfL+XjDlSnVKyhHOdg2ZKk+T3KRRF7yrIvAI8G02mPJxnqnWx/K6XwUynNR/E/pri6YF5JCC7rTwVmAIe6+0aA4N9DgmKZvkOxvtsdwH8C3cHng4Ed7t6ZJo5EjMHyxqB8MWI/FqgHHgyavv7XzPahDI67u68HfgGsBTYSO46zKI/jHhfWcT4imE6dXyhfJ3Z1An2PPdvfStFVSlJI19ZYEt2uzGxf4Cngu+6+M1vRNPM8y/zImNnFwBZ3n5U8O0scJRM7sTPm04DfufupwC5izRiZlEzsQfv7pcSaKN4P7ANckCWOkok9D32NtWjfwcy+B3QCj8ZnZYil5GLPR6UkhTrgqKTPRwIbihRLgpkNI5YQHnX3p4PZm83s8GD54cCWYH6m71CM73YOcImZrQYeI9aEdAdwgJnF3+aXHEcixmD5/sRev1qM2OuAOnefEXx+kliSKIfj/hlglbvXu3sH8DTwMcrjuMeFdZzrgunU+ZEKbnRfDHzFg7afHDGmm99A5t9Z0VVKUpgJHB/c8R9O7KbbxGIGFPSUuB9Y7O6/Slo0EYj3sLiK2L2G+PyvBr00zgIag8vvKcDnzOzA4Ezyc8G8yLj7je5+pLtXEzuWr7j7V4BXgcsyxB7/TpcF5T2Yf3nQS+YY4HhiNw+jjH0TsM7M/iaY9WlgEWVw3Ik1G51lZnsH/3/isZf8cU8SynEOljWZ2VnBsfhq0rYiYWbnA/8FXOLuLSnfKd3xTFvvBL+DTL+z4iv2TY1C/RDr3bCMWG+A75VAPOcSu2ScB8wNfi4k1t74MrA8+PegoLwBdwfxzwfGJm3r60Bt8PO1An+P89jT++hYYn8MtcCfgRHB/L2Cz7XB8mOT1v9e8J2WEmLvkRwxfwSoCY79X4n1aimL4w78GFgCLAAeIdbjpSSPOzCB2L2PDmJnzf8S5nEGxgbHYQVwFymdByKIvZbYPYL43+s9uY4nGeqdTL+zUvjRE80iIpJQKc1HIiKSByUFERFJUFIQEZEEJQUREUlQUhARkQQlBakYZtZlZnOTfrKOlmtm3zSzr4aw39VmNqof633ezH4U9NGfPNA4RPIxNHcRkUFjt7t/JN/C7n5PlMHk4e+IPeT0ceDtIsciFUJJQSpeMFzH48Ang1n/5O61ZvYjoNndf2Fm1wHfJDbmzSJ3v9zMDgIeIPYgUgswzt3nmdnBxB5+Gk3sASVL2tc/A9cRG0p5BnCtu3elxPNlYqNpHktsrKNDgZ1mdqa7XxLFMRCJU/ORVJKRKc1HX05attPdzyD2ZOwdadYdD5zq7h8mlhwg9nTxnGDeTcDDwfwfAm95bMC9icAYADP7EPBl4JzgiqUL+Erqjtz9cfaM5X8Ksad2T1VCkELQlYJUkmzNRxOS/v11muXzgEfN7K/EhsaA2FAlXwJw91fM7GAz259Yc88Xg/mTzGx7UP7TwOnAzOAlYSPZMyBcquOJDY0AsLe7N+Xx/UQGTElBJMYzTMddRKyyvwT4gZmdRPYhkNNtw4CH3P3GbIGYWQ0wChhqZouAw81sLvAdd38z+9cQGRg1H4nEfDnp32nJC8xsCHCUu79K7MVCBwD7Am8QNP+Y2XlAg8feiZE8/wJiA+5BbAC4y8zskGDZQWZ2dGog7j4WmETsfsLPiA2k9hElBCkEXSlIJRkZnHHHveDu8W6pI8xsBrETpStS1qsC/hg0DRnwa3ffEdyIftDM5hG70RwfEvrHwAQzmw28TmzIa9x9kZl9H3gxSDQdwLeANWliPY3YDelrgV+lWS4SCY2SKhUv6H001t0bih2LSLGp+UhERBJ0pSAiIgm6UhARkQQlBRERSVBSEBGRBCUFERFJUFIQEZEEJQUREUn4/+4/ImyXZbrQAAAAAElFTkSuQmCC">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44F2670-CCF7-4BB2-86D6-0C0F1B648894}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6393180" y="2743200"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>167639</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>3068252</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2E4AFA1-7DDB-4D50-9987-B38C5BBE7BF8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5951219" y="2712720"/>
+          <a:ext cx="3510213" cy="2400300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -559,21 +724,6832 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DB3AC2B-88D1-4C2C-A8D6-20260C5FF005}">
-  <dimension ref="K1"/>
+  <dimension ref="A1:K260"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="47.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="11:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>0.19</v>
+      </c>
+      <c r="G1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>32</v>
+      </c>
       <c r="K1" t="s">
         <v>35</v>
       </c>
     </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>0.19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>32</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3">
+        <v>0.1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3">
+        <v>0.1</v>
+      </c>
+      <c r="J3">
+        <v>32</v>
+      </c>
+      <c r="K3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4">
+        <v>0.1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4">
+        <v>0.1</v>
+      </c>
+      <c r="J4">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5">
+        <v>0.1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>300</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6">
+        <v>0.1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>350</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7">
+        <v>0.1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>400</v>
+      </c>
+      <c r="C8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>0.01</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>450</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>500</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10">
+        <v>0.2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="J10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>550</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>0.19</v>
+      </c>
+      <c r="G11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>600</v>
+      </c>
+      <c r="C12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12">
+        <v>0.2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>650</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13">
+        <v>0.03</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13">
+        <v>0.2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13">
+        <v>0.2</v>
+      </c>
+      <c r="J13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>700</v>
+      </c>
+      <c r="C14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D14">
+        <v>0.02</v>
+      </c>
+      <c r="E14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14">
+        <v>0.2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>750</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <v>0.1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16">
+        <v>0.1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>850</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17">
+        <v>0.1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>900</v>
+      </c>
+      <c r="C18" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>14</v>
+      </c>
+      <c r="F18">
+        <v>0.1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>15</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>950</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>1000</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20">
+        <v>0.1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>1050</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F21">
+        <v>0.1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1100</v>
+      </c>
+      <c r="C22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>14</v>
+      </c>
+      <c r="F22">
+        <v>0.2</v>
+      </c>
+      <c r="G22" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>1150</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>14</v>
+      </c>
+      <c r="F23">
+        <v>0.2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>15</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>1200</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24">
+        <v>0.2</v>
+      </c>
+      <c r="G24" t="s">
+        <v>15</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1250</v>
+      </c>
+      <c r="C25" t="s">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25">
+        <v>0.2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>1300</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26">
+        <v>0.03</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>0.2</v>
+      </c>
+      <c r="G26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>1350</v>
+      </c>
+      <c r="C27" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27">
+        <v>0.1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>15</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>1400</v>
+      </c>
+      <c r="C28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>14</v>
+      </c>
+      <c r="F28">
+        <v>0.1</v>
+      </c>
+      <c r="G28" t="s">
+        <v>15</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>1450</v>
+      </c>
+      <c r="C29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D29">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29">
+        <v>0.1</v>
+      </c>
+      <c r="G29" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>1500</v>
+      </c>
+      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+      <c r="D30">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30">
+        <v>0.1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>1550</v>
+      </c>
+      <c r="C31" t="s">
+        <v>13</v>
+      </c>
+      <c r="D31">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31">
+        <v>0.1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>15</v>
+      </c>
+      <c r="H31">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>1600</v>
+      </c>
+      <c r="C32" t="s">
+        <v>13</v>
+      </c>
+      <c r="D32">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E32" t="s">
+        <v>14</v>
+      </c>
+      <c r="F32">
+        <v>0.1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>15</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>1650</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <v>0.2</v>
+      </c>
+      <c r="G33" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>1700</v>
+      </c>
+      <c r="C34" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34">
+        <v>0.02</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34">
+        <v>0.2</v>
+      </c>
+      <c r="G34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>1750</v>
+      </c>
+      <c r="C35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E35" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35">
+        <v>0.2</v>
+      </c>
+      <c r="G35" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>1800</v>
+      </c>
+      <c r="C36" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F36">
+        <v>0.3</v>
+      </c>
+      <c r="G36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>1850</v>
+      </c>
+      <c r="C37" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37">
+        <v>0.03</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37">
+        <v>0.3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>1900</v>
+      </c>
+      <c r="C38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="F38">
+        <v>0.3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H38">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>1950</v>
+      </c>
+      <c r="C39" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39" t="s">
+        <v>15</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>2000</v>
+      </c>
+      <c r="C40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="E40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40">
+        <v>0.19</v>
+      </c>
+      <c r="G40" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2050</v>
+      </c>
+      <c r="C41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D41">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>0.1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+      <c r="H41">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>2100</v>
+      </c>
+      <c r="C42" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>0.1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+      <c r="H42">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2150</v>
+      </c>
+      <c r="C43" t="s">
+        <v>13</v>
+      </c>
+      <c r="D43">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>0.1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>2200</v>
+      </c>
+      <c r="C44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>0.1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2250</v>
+      </c>
+      <c r="C45" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>14</v>
+      </c>
+      <c r="F45">
+        <v>0.1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>15</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>2300</v>
+      </c>
+      <c r="C46" t="s">
+        <v>13</v>
+      </c>
+      <c r="D46">
+        <v>2.3E-2</v>
+      </c>
+      <c r="E46" t="s">
+        <v>14</v>
+      </c>
+      <c r="F46">
+        <v>0.2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>15</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>2350</v>
+      </c>
+      <c r="C47" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>14</v>
+      </c>
+      <c r="F47">
+        <v>0.2</v>
+      </c>
+      <c r="G47" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>2400</v>
+      </c>
+      <c r="C48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48">
+        <v>1.9E-2</v>
+      </c>
+      <c r="E48" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48">
+        <v>0.1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>2450</v>
+      </c>
+      <c r="C49" t="s">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E49" t="s">
+        <v>14</v>
+      </c>
+      <c r="F49">
+        <v>0.2</v>
+      </c>
+      <c r="G49" t="s">
+        <v>15</v>
+      </c>
+      <c r="H49">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>2500</v>
+      </c>
+      <c r="C50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50">
+        <v>0.03</v>
+      </c>
+      <c r="E50" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50">
+        <v>0.2</v>
+      </c>
+      <c r="G50" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>2550</v>
+      </c>
+      <c r="C51" t="s">
+        <v>13</v>
+      </c>
+      <c r="D51">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <v>0.1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>2600</v>
+      </c>
+      <c r="C52" t="s">
+        <v>13</v>
+      </c>
+      <c r="D52">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>14</v>
+      </c>
+      <c r="F52">
+        <v>0.1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>15</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>2650</v>
+      </c>
+      <c r="C53" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>0.1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>15</v>
+      </c>
+      <c r="H53">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>2700</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E54" t="s">
+        <v>14</v>
+      </c>
+      <c r="F54">
+        <v>0.1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>15</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>2750</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E55" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55">
+        <v>0.2</v>
+      </c>
+      <c r="G55" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>2800</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>14</v>
+      </c>
+      <c r="F56">
+        <v>0.2</v>
+      </c>
+      <c r="G56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>2850</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E57" t="s">
+        <v>14</v>
+      </c>
+      <c r="F57">
+        <v>0.1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>15</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>2900</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58">
+        <v>2.7E-2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>14</v>
+      </c>
+      <c r="F58">
+        <v>0.1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>2950</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>0.03</v>
+      </c>
+      <c r="E59" t="s">
+        <v>14</v>
+      </c>
+      <c r="F59">
+        <v>0.1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>3000</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>14</v>
+      </c>
+      <c r="F60">
+        <v>0.1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>15</v>
+      </c>
+      <c r="H60">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>3050</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61">
+        <v>3.1E-2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61">
+        <v>0.1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>3100</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E62" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62">
+        <v>0.2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>3150</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>14</v>
+      </c>
+      <c r="F63">
+        <v>0.2</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
+      </c>
+      <c r="H63">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>3200</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64">
+        <v>0.02</v>
+      </c>
+      <c r="E64" t="s">
+        <v>14</v>
+      </c>
+      <c r="F64">
+        <v>0.2</v>
+      </c>
+      <c r="G64" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>3250</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65">
+        <v>2.4E-2</v>
+      </c>
+      <c r="E65" t="s">
+        <v>14</v>
+      </c>
+      <c r="F65">
+        <v>0.2</v>
+      </c>
+      <c r="G65" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>3300</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>14</v>
+      </c>
+      <c r="F66">
+        <v>0.2</v>
+      </c>
+      <c r="G66" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>3350</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>14</v>
+      </c>
+      <c r="F67">
+        <v>0.2</v>
+      </c>
+      <c r="G67" t="s">
+        <v>15</v>
+      </c>
+      <c r="H67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>3400</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>0.04</v>
+      </c>
+      <c r="E68" t="s">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>0.2</v>
+      </c>
+      <c r="G68" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>3450</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <v>0.2</v>
+      </c>
+      <c r="G69" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>3500</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E70" t="s">
+        <v>14</v>
+      </c>
+      <c r="F70">
+        <v>0.19</v>
+      </c>
+      <c r="G70" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>3550</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E71" t="s">
+        <v>14</v>
+      </c>
+      <c r="F71">
+        <v>0.19</v>
+      </c>
+      <c r="G71" t="s">
+        <v>15</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>3600</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>14</v>
+      </c>
+      <c r="F72">
+        <v>0.1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H72">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>3650</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E73" t="s">
+        <v>14</v>
+      </c>
+      <c r="F73">
+        <v>0.2</v>
+      </c>
+      <c r="G73" t="s">
+        <v>15</v>
+      </c>
+      <c r="H73">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>3700</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74">
+        <v>0.2</v>
+      </c>
+      <c r="G74" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>3750</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E75" t="s">
+        <v>14</v>
+      </c>
+      <c r="F75">
+        <v>0.2</v>
+      </c>
+      <c r="G75" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>3800</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E76" t="s">
+        <v>14</v>
+      </c>
+      <c r="F76">
+        <v>0.1</v>
+      </c>
+      <c r="G76" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>3850</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E77" t="s">
+        <v>14</v>
+      </c>
+      <c r="F77">
+        <v>0.1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>15</v>
+      </c>
+      <c r="H77">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>3900</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78">
+        <v>0.05</v>
+      </c>
+      <c r="E78" t="s">
+        <v>14</v>
+      </c>
+      <c r="F78">
+        <v>0.1</v>
+      </c>
+      <c r="G78" t="s">
+        <v>15</v>
+      </c>
+      <c r="H78">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>3950</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E79" t="s">
+        <v>14</v>
+      </c>
+      <c r="F79">
+        <v>0.1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>15</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>4000</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E80" t="s">
+        <v>14</v>
+      </c>
+      <c r="F80">
+        <v>0.2</v>
+      </c>
+      <c r="G80" t="s">
+        <v>15</v>
+      </c>
+      <c r="H80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>4050</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>0.05</v>
+      </c>
+      <c r="E81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F81">
+        <v>0.2</v>
+      </c>
+      <c r="G81" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>4100</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>4.5999999999999999E-2</v>
+      </c>
+      <c r="E82" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>0.1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>4150</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E83" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83">
+        <v>0.2</v>
+      </c>
+      <c r="G83" t="s">
+        <v>15</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>4200</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E84" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>0.2</v>
+      </c>
+      <c r="G84" t="s">
+        <v>15</v>
+      </c>
+      <c r="H84">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>4250</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>0.2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>4300</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>0.1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>4350</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="E87" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87">
+        <v>0.1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>4400</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E88" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>0.2</v>
+      </c>
+      <c r="G88" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>4450</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="E89" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>0.2</v>
+      </c>
+      <c r="G89" t="s">
+        <v>15</v>
+      </c>
+      <c r="H89">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>4500</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90">
+        <v>0.05</v>
+      </c>
+      <c r="E90" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90">
+        <v>0.2</v>
+      </c>
+      <c r="G90" t="s">
+        <v>15</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>4550</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>0.2</v>
+      </c>
+      <c r="G91" t="s">
+        <v>15</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>4600</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92">
+        <v>0.1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>15</v>
+      </c>
+      <c r="H92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>4650</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>0.1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="H93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>4700</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E94" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>0.1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>15</v>
+      </c>
+      <c r="H94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>4750</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E95" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>0.1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>15</v>
+      </c>
+      <c r="H95">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>4800</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E96" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>0.1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>4850</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E97" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97">
+        <v>0.2</v>
+      </c>
+      <c r="G97" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98">
+        <v>4900</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>14</v>
+      </c>
+      <c r="F98">
+        <v>0.2</v>
+      </c>
+      <c r="G98" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99">
+        <v>4950</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E99" t="s">
+        <v>14</v>
+      </c>
+      <c r="F99">
+        <v>0.19</v>
+      </c>
+      <c r="G99" t="s">
+        <v>15</v>
+      </c>
+      <c r="H99">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100">
+        <v>5000</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100">
+        <v>5.2999999999999999E-2</v>
+      </c>
+      <c r="E100" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>0.2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>15</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101">
+        <v>5050</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>0.2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>15</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102">
+        <v>5100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102">
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="E102" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102">
+        <v>0.2</v>
+      </c>
+      <c r="G102" t="s">
+        <v>15</v>
+      </c>
+      <c r="H102">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103">
+        <v>5150</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103">
+        <v>0.2</v>
+      </c>
+      <c r="G103" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104">
+        <v>5200</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>0.2</v>
+      </c>
+      <c r="G104" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105">
+        <v>5250</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <v>0.1</v>
+      </c>
+      <c r="G105" t="s">
+        <v>15</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106">
+        <v>5300</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>0.2</v>
+      </c>
+      <c r="G106" t="s">
+        <v>15</v>
+      </c>
+      <c r="H106">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107">
+        <v>5350</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <v>0.2</v>
+      </c>
+      <c r="G107" t="s">
+        <v>15</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>5400</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>0.2</v>
+      </c>
+      <c r="G108" t="s">
+        <v>15</v>
+      </c>
+      <c r="H108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>5450</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>0.2</v>
+      </c>
+      <c r="G109" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>5500</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110">
+        <v>5.1999999999999998E-2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>0.2</v>
+      </c>
+      <c r="G110" t="s">
+        <v>15</v>
+      </c>
+      <c r="H110">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>5550</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>0.2</v>
+      </c>
+      <c r="G111" t="s">
+        <v>15</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>5600</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112">
+        <v>5.0999999999999997E-2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>0.2</v>
+      </c>
+      <c r="G112" t="s">
+        <v>15</v>
+      </c>
+      <c r="H112">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>5650</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>0.2</v>
+      </c>
+      <c r="G113" t="s">
+        <v>15</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>5700</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <v>0.2</v>
+      </c>
+      <c r="G114" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>5750</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115">
+        <v>0.3</v>
+      </c>
+      <c r="G115" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>5800</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>6.2E-2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116">
+        <v>0.3</v>
+      </c>
+      <c r="G116" t="s">
+        <v>15</v>
+      </c>
+      <c r="H116">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>5850</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>14</v>
+      </c>
+      <c r="F117">
+        <v>0.2</v>
+      </c>
+      <c r="G117" t="s">
+        <v>15</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>5900</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>14</v>
+      </c>
+      <c r="F118">
+        <v>0.3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>15</v>
+      </c>
+      <c r="H118">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>5950</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E119" t="s">
+        <v>14</v>
+      </c>
+      <c r="F119">
+        <v>0.3</v>
+      </c>
+      <c r="G119" t="s">
+        <v>15</v>
+      </c>
+      <c r="H119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>6000</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="E120" t="s">
+        <v>14</v>
+      </c>
+      <c r="F120">
+        <v>0.2</v>
+      </c>
+      <c r="G120" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>6050</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="E121" t="s">
+        <v>14</v>
+      </c>
+      <c r="F121">
+        <v>0.2</v>
+      </c>
+      <c r="G121" t="s">
+        <v>15</v>
+      </c>
+      <c r="H121">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>6100</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>6.4000000000000001E-2</v>
+      </c>
+      <c r="E122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122">
+        <v>0.2</v>
+      </c>
+      <c r="G122" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>6150</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <v>0.2</v>
+      </c>
+      <c r="G123" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>6200</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E124" t="s">
+        <v>14</v>
+      </c>
+      <c r="F124">
+        <v>0.2</v>
+      </c>
+      <c r="G124" t="s">
+        <v>15</v>
+      </c>
+      <c r="H124">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>6250</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E125" t="s">
+        <v>14</v>
+      </c>
+      <c r="F125">
+        <v>0.2</v>
+      </c>
+      <c r="G125" t="s">
+        <v>15</v>
+      </c>
+      <c r="H125">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>6300</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>6.0999999999999999E-2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>14</v>
+      </c>
+      <c r="F126">
+        <v>0.2</v>
+      </c>
+      <c r="G126" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>6350</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="E127" t="s">
+        <v>14</v>
+      </c>
+      <c r="F127">
+        <v>0.2</v>
+      </c>
+      <c r="G127" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>6400</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E128" t="s">
+        <v>14</v>
+      </c>
+      <c r="F128">
+        <v>0.2</v>
+      </c>
+      <c r="G128" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>6450</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="E129" t="s">
+        <v>14</v>
+      </c>
+      <c r="F129">
+        <v>0.2</v>
+      </c>
+      <c r="G129" t="s">
+        <v>15</v>
+      </c>
+      <c r="H129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>6500</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E130" t="s">
+        <v>14</v>
+      </c>
+      <c r="F130">
+        <v>0.2</v>
+      </c>
+      <c r="G130" t="s">
+        <v>15</v>
+      </c>
+      <c r="H130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>6550</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E131" t="s">
+        <v>14</v>
+      </c>
+      <c r="F131">
+        <v>0.2</v>
+      </c>
+      <c r="G131" t="s">
+        <v>15</v>
+      </c>
+      <c r="H131">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>6600</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132">
+        <v>0.08</v>
+      </c>
+      <c r="E132" t="s">
+        <v>14</v>
+      </c>
+      <c r="F132">
+        <v>0.5</v>
+      </c>
+      <c r="G132" t="s">
+        <v>15</v>
+      </c>
+      <c r="H132">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>6650</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>14</v>
+      </c>
+      <c r="F133">
+        <v>0.5</v>
+      </c>
+      <c r="G133" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>6700</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134">
+        <v>7.0999999999999994E-2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>14</v>
+      </c>
+      <c r="F134">
+        <v>0.3</v>
+      </c>
+      <c r="G134" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>6750</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135">
+        <v>6.8000000000000005E-2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135">
+        <v>0.3</v>
+      </c>
+      <c r="G135" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>6800</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136">
+        <v>0.3</v>
+      </c>
+      <c r="G136" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>6850</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137">
+        <v>0.3</v>
+      </c>
+      <c r="G137" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>6900</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138">
+        <v>0.08</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138">
+        <v>0.3</v>
+      </c>
+      <c r="G138" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>6950</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139">
+        <v>0.2</v>
+      </c>
+      <c r="G139" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>7000</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140">
+        <v>0.3</v>
+      </c>
+      <c r="G140" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>7050</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141">
+        <v>0.3</v>
+      </c>
+      <c r="G141" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>7100</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142">
+        <v>0.2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>7150</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143">
+        <v>0.4</v>
+      </c>
+      <c r="G143" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>7200</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144">
+        <v>0.4</v>
+      </c>
+      <c r="G144" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>7250</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145">
+        <v>0.3</v>
+      </c>
+      <c r="G145" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>7300</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146">
+        <v>0.3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>7350</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147">
+        <v>0.09</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147">
+        <v>0.3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>7400</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148">
+        <v>0.3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>7450</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149">
+        <v>0.09</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149">
+        <v>0.4</v>
+      </c>
+      <c r="G149" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>7500</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150">
+        <v>0.09</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150">
+        <v>0.4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>7550</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151">
+        <v>7.6999999999999999E-2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151">
+        <v>0.2</v>
+      </c>
+      <c r="G151" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>7600</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152">
+        <v>0.5</v>
+      </c>
+      <c r="G152" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>7650</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153">
+        <v>0.5</v>
+      </c>
+      <c r="G153" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>7700</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154">
+        <v>0.1</v>
+      </c>
+      <c r="G154" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>7750</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155">
+        <v>0.2</v>
+      </c>
+      <c r="G155" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>7800</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156">
+        <v>0.4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>7850</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157">
+        <v>0.4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>7900</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158">
+        <v>0.3</v>
+      </c>
+      <c r="G158" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>7950</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159">
+        <v>0.4</v>
+      </c>
+      <c r="G159" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>8000</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160">
+        <v>0.4</v>
+      </c>
+      <c r="G160" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>8050</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161">
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161">
+        <v>0.4</v>
+      </c>
+      <c r="G161" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>8100</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162">
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162">
+        <v>0.4</v>
+      </c>
+      <c r="G162" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>8150</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163">
+        <v>0.2</v>
+      </c>
+      <c r="G163" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>8200</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164">
+        <v>0.4</v>
+      </c>
+      <c r="G164" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>8250</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165">
+        <v>0.1</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165">
+        <v>0.8</v>
+      </c>
+      <c r="G165" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>8300</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166">
+        <v>9.4E-2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166">
+        <v>0.8</v>
+      </c>
+      <c r="G166" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>8350</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167">
+        <v>0.3</v>
+      </c>
+      <c r="G167" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>8400</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168">
+        <v>0.3</v>
+      </c>
+      <c r="G168" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>8450</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169">
+        <v>8.7999999999999995E-2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169">
+        <v>0.4</v>
+      </c>
+      <c r="G169" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>8500</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170">
+        <v>9.6000000000000002E-2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170">
+        <v>0.4</v>
+      </c>
+      <c r="G170" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>8550</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171">
+        <v>0.111</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171">
+        <v>1.2</v>
+      </c>
+      <c r="G171" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>8600</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172">
+        <v>0.112</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172">
+        <v>1.2</v>
+      </c>
+      <c r="G172" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>8650</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173">
+        <v>0.108</v>
+      </c>
+      <c r="E173" t="s">
+        <v>14</v>
+      </c>
+      <c r="F173">
+        <v>0.5</v>
+      </c>
+      <c r="G173" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>8700</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174">
+        <v>0.124</v>
+      </c>
+      <c r="E174" t="s">
+        <v>14</v>
+      </c>
+      <c r="F174">
+        <v>1.3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>15</v>
+      </c>
+      <c r="H174">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>8750</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175">
+        <v>0.124</v>
+      </c>
+      <c r="E175" t="s">
+        <v>14</v>
+      </c>
+      <c r="F175">
+        <v>1.3</v>
+      </c>
+      <c r="G175" t="s">
+        <v>15</v>
+      </c>
+      <c r="H175">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>8800</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176">
+        <v>0.12</v>
+      </c>
+      <c r="E176" t="s">
+        <v>14</v>
+      </c>
+      <c r="F176">
+        <v>0.6</v>
+      </c>
+      <c r="G176" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>8850</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177">
+        <v>0.115</v>
+      </c>
+      <c r="E177" t="s">
+        <v>14</v>
+      </c>
+      <c r="F177">
+        <v>0.6</v>
+      </c>
+      <c r="G177" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>8900</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178">
+        <v>0.105</v>
+      </c>
+      <c r="E178" t="s">
+        <v>14</v>
+      </c>
+      <c r="F178">
+        <v>0.5</v>
+      </c>
+      <c r="G178" t="s">
+        <v>15</v>
+      </c>
+      <c r="H178">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>8950</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179">
+        <v>0.114</v>
+      </c>
+      <c r="E179" t="s">
+        <v>14</v>
+      </c>
+      <c r="F179">
+        <v>0.5</v>
+      </c>
+      <c r="G179" t="s">
+        <v>15</v>
+      </c>
+      <c r="H179">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>9000</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180">
+        <v>0.112</v>
+      </c>
+      <c r="E180" t="s">
+        <v>14</v>
+      </c>
+      <c r="F180">
+        <v>0.5</v>
+      </c>
+      <c r="G180" t="s">
+        <v>15</v>
+      </c>
+      <c r="H180">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>9050</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181">
+        <v>0.11</v>
+      </c>
+      <c r="E181" t="s">
+        <v>14</v>
+      </c>
+      <c r="F181">
+        <v>0.3</v>
+      </c>
+      <c r="G181" t="s">
+        <v>15</v>
+      </c>
+      <c r="H181">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>9100</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182">
+        <v>0.113</v>
+      </c>
+      <c r="E182" t="s">
+        <v>14</v>
+      </c>
+      <c r="F182">
+        <v>0.5</v>
+      </c>
+      <c r="G182" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>9150</v>
+      </c>
+      <c r="C183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183">
+        <v>0.114</v>
+      </c>
+      <c r="E183" t="s">
+        <v>14</v>
+      </c>
+      <c r="F183">
+        <v>0.5</v>
+      </c>
+      <c r="G183" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>9200</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184">
+        <v>0.111</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184">
+        <v>0.5</v>
+      </c>
+      <c r="G184" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>9250</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185">
+        <v>0.2</v>
+      </c>
+      <c r="G185" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>9300</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186">
+        <v>0.109</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186">
+        <v>0.3</v>
+      </c>
+      <c r="G186" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>9350</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187">
+        <v>0.126</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187">
+        <v>0.9</v>
+      </c>
+      <c r="G187" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>9400</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188">
+        <v>0.111</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188">
+        <v>0.9</v>
+      </c>
+      <c r="G188" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>9450</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189">
+        <v>0.113</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189">
+        <v>0.7</v>
+      </c>
+      <c r="G189" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>9500</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190">
+        <v>1.5</v>
+      </c>
+      <c r="G190" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>9550</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191">
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191">
+        <v>1.6</v>
+      </c>
+      <c r="G191" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>9600</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192">
+        <v>0.152</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192">
+        <v>1.6</v>
+      </c>
+      <c r="G192" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>9650</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193">
+        <v>0.112</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193">
+        <v>0.3</v>
+      </c>
+      <c r="G193" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>9700</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194">
+        <v>0.105</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194">
+        <v>0.3</v>
+      </c>
+      <c r="G194" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A195" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>9750</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195">
+        <v>0.113</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195">
+        <v>0.3</v>
+      </c>
+      <c r="G195" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A196" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>9800</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196">
+        <v>0.129</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196">
+        <v>1.3</v>
+      </c>
+      <c r="G196" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A197" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>9850</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197">
+        <v>0.14399999999999999</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197">
+        <v>1.4</v>
+      </c>
+      <c r="G197" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A198" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>9900</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198">
+        <v>0.157</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198">
+        <v>1.9</v>
+      </c>
+      <c r="G198" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A199" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>9950</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E199" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199">
+        <v>2.6</v>
+      </c>
+      <c r="G199" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A200" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>10000</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200">
+        <v>2.6</v>
+      </c>
+      <c r="G200" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A201" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>10050</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201">
+        <v>0.17599999999999999</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201">
+        <v>2.1</v>
+      </c>
+      <c r="G201" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A202" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B202">
+        <v>10100</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202">
+        <v>0.127</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202">
+        <v>1</v>
+      </c>
+      <c r="G202" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A203" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B203">
+        <v>10150</v>
+      </c>
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203">
+        <v>0.109</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203">
+        <v>1</v>
+      </c>
+      <c r="G203" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A204" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B204">
+        <v>10200</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204">
+        <v>8.5999999999999993E-2</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204">
+        <v>0.5</v>
+      </c>
+      <c r="G204" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A205" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B205">
+        <v>10250</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205">
+        <v>0.10199999999999999</v>
+      </c>
+      <c r="E205" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205">
+        <v>0.4</v>
+      </c>
+      <c r="G205" t="s">
+        <v>15</v>
+      </c>
+      <c r="H205">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A206" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B206">
+        <v>10300</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206">
+        <v>1</v>
+      </c>
+      <c r="G206" t="s">
+        <v>15</v>
+      </c>
+      <c r="H206">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A207" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B207">
+        <v>10350</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207">
+        <v>0.20599999999999999</v>
+      </c>
+      <c r="E207" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207">
+        <v>1.5</v>
+      </c>
+      <c r="G207" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A208" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B208">
+        <v>10400</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208">
+        <v>0.17799999999999999</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208">
+        <v>1.5</v>
+      </c>
+      <c r="G208" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A209" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B209">
+        <v>10450</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209">
+        <v>0.13700000000000001</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209">
+        <v>2.5</v>
+      </c>
+      <c r="G209" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A210" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B210">
+        <v>10500</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210">
+        <v>2.6</v>
+      </c>
+      <c r="G210" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A211" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B211">
+        <v>10550</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211">
+        <v>0.193</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211">
+        <v>2.6</v>
+      </c>
+      <c r="G211" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A212" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B212">
+        <v>10600</v>
+      </c>
+      <c r="C212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212">
+        <v>0.16600000000000001</v>
+      </c>
+      <c r="E212" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212">
+        <v>1.7</v>
+      </c>
+      <c r="G212" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A213" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B213">
+        <v>10650</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213">
+        <v>0.128</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213">
+        <v>0.8</v>
+      </c>
+      <c r="G213" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A214" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B214">
+        <v>10700</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214">
+        <v>0.182</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214">
+        <v>2.6</v>
+      </c>
+      <c r="G214" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A215" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B215">
+        <v>10750</v>
+      </c>
+      <c r="C215" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215">
+        <v>0.23499999999999999</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215">
+        <v>2.6</v>
+      </c>
+      <c r="G215" t="s">
+        <v>15</v>
+      </c>
+      <c r="H215">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A216" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B216">
+        <v>10800</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216">
+        <v>2.6</v>
+      </c>
+      <c r="G216" t="s">
+        <v>15</v>
+      </c>
+      <c r="H216">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A217" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B217">
+        <v>10850</v>
+      </c>
+      <c r="C217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217">
+        <v>0.9</v>
+      </c>
+      <c r="G217" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A218" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B218">
+        <v>10900</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="E218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218">
+        <v>0.7</v>
+      </c>
+      <c r="G218" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A219" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B219">
+        <v>10950</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219">
+        <v>0.13300000000000001</v>
+      </c>
+      <c r="E219" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219">
+        <v>0.7</v>
+      </c>
+      <c r="G219" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A220" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B220">
+        <v>11000</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220">
+        <v>0.11700000000000001</v>
+      </c>
+      <c r="E220" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220">
+        <v>0.39</v>
+      </c>
+      <c r="G220" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A221" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B221">
+        <v>11050</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221">
+        <v>0.128</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221">
+        <v>1.9</v>
+      </c>
+      <c r="G221" t="s">
+        <v>15</v>
+      </c>
+      <c r="H221">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A222" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B222">
+        <v>11100</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222">
+        <v>0.28399999999999997</v>
+      </c>
+      <c r="E222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222">
+        <v>2.7</v>
+      </c>
+      <c r="G222" t="s">
+        <v>15</v>
+      </c>
+      <c r="H222">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A223" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B223">
+        <v>11150</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223">
+        <v>0.29099999999999998</v>
+      </c>
+      <c r="E223" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223">
+        <v>2.7</v>
+      </c>
+      <c r="G223" t="s">
+        <v>15</v>
+      </c>
+      <c r="H223">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A224" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B224">
+        <v>11200</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="E224" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224">
+        <v>2.6</v>
+      </c>
+      <c r="G224" t="s">
+        <v>15</v>
+      </c>
+      <c r="H224">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A225" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B225">
+        <v>11250</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225">
+        <v>0.22</v>
+      </c>
+      <c r="E225" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225">
+        <v>2.6</v>
+      </c>
+      <c r="G225" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A226" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B226">
+        <v>11300</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226">
+        <v>0.21</v>
+      </c>
+      <c r="E226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226">
+        <v>2.5</v>
+      </c>
+      <c r="G226" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A227" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B227">
+        <v>11350</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227">
+        <v>0.29699999999999999</v>
+      </c>
+      <c r="E227" t="s">
+        <v>14</v>
+      </c>
+      <c r="F227">
+        <v>2.7</v>
+      </c>
+      <c r="G227" t="s">
+        <v>15</v>
+      </c>
+      <c r="H227">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A228" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B228">
+        <v>11400</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E228" t="s">
+        <v>14</v>
+      </c>
+      <c r="F228">
+        <v>2.7</v>
+      </c>
+      <c r="G228" t="s">
+        <v>15</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A229" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B229">
+        <v>11450</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229">
+        <v>0.378</v>
+      </c>
+      <c r="E229" t="s">
+        <v>14</v>
+      </c>
+      <c r="F229">
+        <v>2.7</v>
+      </c>
+      <c r="G229" t="s">
+        <v>15</v>
+      </c>
+      <c r="H229">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A230" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B230">
+        <v>11500</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="E230" t="s">
+        <v>14</v>
+      </c>
+      <c r="F230">
+        <v>2.7</v>
+      </c>
+      <c r="G230" t="s">
+        <v>15</v>
+      </c>
+      <c r="H230">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A231" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B231">
+        <v>11550</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231">
+        <v>0.32</v>
+      </c>
+      <c r="E231" t="s">
+        <v>14</v>
+      </c>
+      <c r="F231">
+        <v>2.6</v>
+      </c>
+      <c r="G231" t="s">
+        <v>15</v>
+      </c>
+      <c r="H231">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A232" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B232">
+        <v>11600</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232">
+        <v>0.249</v>
+      </c>
+      <c r="E232" t="s">
+        <v>14</v>
+      </c>
+      <c r="F232">
+        <v>2.6</v>
+      </c>
+      <c r="G232" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A233" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B233">
+        <v>11650</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="E233" t="s">
+        <v>14</v>
+      </c>
+      <c r="F233">
+        <v>1.7</v>
+      </c>
+      <c r="G233" t="s">
+        <v>15</v>
+      </c>
+      <c r="H233">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A234" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B234">
+        <v>11700</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234">
+        <v>0.23799999999999999</v>
+      </c>
+      <c r="E234" t="s">
+        <v>14</v>
+      </c>
+      <c r="F234">
+        <v>2.6</v>
+      </c>
+      <c r="G234" t="s">
+        <v>15</v>
+      </c>
+      <c r="H234">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A235" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B235">
+        <v>11750</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235">
+        <v>0.24</v>
+      </c>
+      <c r="E235" t="s">
+        <v>14</v>
+      </c>
+      <c r="F235">
+        <v>2.6</v>
+      </c>
+      <c r="G235" t="s">
+        <v>15</v>
+      </c>
+      <c r="H235">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A236" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B236">
+        <v>11800</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236">
+        <v>0.27600000000000002</v>
+      </c>
+      <c r="E236" t="s">
+        <v>14</v>
+      </c>
+      <c r="F236">
+        <v>2.6</v>
+      </c>
+      <c r="G236" t="s">
+        <v>15</v>
+      </c>
+      <c r="H236">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A237" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B237">
+        <v>11850</v>
+      </c>
+      <c r="C237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237">
+        <v>0.23300000000000001</v>
+      </c>
+      <c r="E237" t="s">
+        <v>14</v>
+      </c>
+      <c r="F237">
+        <v>2.6</v>
+      </c>
+      <c r="G237" t="s">
+        <v>15</v>
+      </c>
+      <c r="H237">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A238" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B238">
+        <v>11900</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238">
+        <v>0.13</v>
+      </c>
+      <c r="E238" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238">
+        <v>0.7</v>
+      </c>
+      <c r="G238" t="s">
+        <v>15</v>
+      </c>
+      <c r="H238">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A239" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B239">
+        <v>11950</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239">
+        <v>0.121</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239">
+        <v>0.3</v>
+      </c>
+      <c r="G239" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A240" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B240">
+        <v>12000</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240">
+        <v>0.13200000000000001</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240" t="s">
+        <v>15</v>
+      </c>
+      <c r="H240">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A241" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B241">
+        <v>12050</v>
+      </c>
+      <c r="C241" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241">
+        <v>0.151</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241" t="s">
+        <v>15</v>
+      </c>
+      <c r="H241">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A242" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B242">
+        <v>12100</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242">
+        <v>0.157</v>
+      </c>
+      <c r="E242" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242">
+        <v>0.9</v>
+      </c>
+      <c r="G242" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A243" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B243">
+        <v>12150</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243">
+        <v>0.218</v>
+      </c>
+      <c r="E243" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243">
+        <v>2.6</v>
+      </c>
+      <c r="G243" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A244" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B244">
+        <v>12200</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="E244" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244">
+        <v>2.6</v>
+      </c>
+      <c r="G244" t="s">
+        <v>15</v>
+      </c>
+      <c r="H244">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A245" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B245">
+        <v>12250</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245">
+        <v>0.215</v>
+      </c>
+      <c r="E245" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245">
+        <v>2.39</v>
+      </c>
+      <c r="G245" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A246" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B246">
+        <v>12300</v>
+      </c>
+      <c r="C246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="E246" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246">
+        <v>0.5</v>
+      </c>
+      <c r="G246" t="s">
+        <v>15</v>
+      </c>
+      <c r="H246">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A247" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B247">
+        <v>12350</v>
+      </c>
+      <c r="C247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247">
+        <v>0.13400000000000001</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247">
+        <v>0.5</v>
+      </c>
+      <c r="G247" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A248" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B248">
+        <v>12400</v>
+      </c>
+      <c r="C248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248">
+        <v>0.113</v>
+      </c>
+      <c r="E248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248">
+        <v>0.6</v>
+      </c>
+      <c r="G248" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A249" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249">
+        <v>12450</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249">
+        <v>0.6</v>
+      </c>
+      <c r="G249" t="s">
+        <v>15</v>
+      </c>
+      <c r="H249">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A250" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B250">
+        <v>12500</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250">
+        <v>0.2</v>
+      </c>
+      <c r="G250" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A251" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B251">
+        <v>12550</v>
+      </c>
+      <c r="C251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251">
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251">
+        <v>0.2</v>
+      </c>
+      <c r="G251" t="s">
+        <v>15</v>
+      </c>
+      <c r="H251">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A252" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B252">
+        <v>12600</v>
+      </c>
+      <c r="C252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="E252" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252">
+        <v>0.2</v>
+      </c>
+      <c r="G252" t="s">
+        <v>15</v>
+      </c>
+      <c r="H252">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A253" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B253">
+        <v>12650</v>
+      </c>
+      <c r="C253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253">
+        <v>0.127</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253">
+        <v>0.5</v>
+      </c>
+      <c r="G253" t="s">
+        <v>15</v>
+      </c>
+      <c r="H253">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A254" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B254">
+        <v>12700</v>
+      </c>
+      <c r="C254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254">
+        <v>0.129</v>
+      </c>
+      <c r="E254" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254">
+        <v>0.5</v>
+      </c>
+      <c r="G254" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A255" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B255">
+        <v>12750</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255">
+        <v>0.6</v>
+      </c>
+      <c r="G255" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A256" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256">
+        <v>12800</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256">
+        <v>0.13600000000000001</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256">
+        <v>0.6</v>
+      </c>
+      <c r="G256" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A257" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B257">
+        <v>12850</v>
+      </c>
+      <c r="C257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257">
+        <v>0.126</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257">
+        <v>0.3</v>
+      </c>
+      <c r="G257" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A258" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B258">
+        <v>12900</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258">
+        <v>0.16200000000000001</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G258" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A259" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B259">
+        <v>12950</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259">
+        <v>0.26700000000000002</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259">
+        <v>2.6</v>
+      </c>
+      <c r="G259" t="s">
+        <v>15</v>
+      </c>
+      <c r="H259">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A260" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B260">
+        <v>13000</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260">
+        <v>0.434</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260">
+        <v>2.7</v>
+      </c>
+      <c r="G260" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260">
+        <v>0.2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13864,8 +20840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59F04735-E9B3-40EF-9518-38251D00DBD5}">
   <dimension ref="A1:J1200"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45118,8 +52094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA63834C-DF4A-4610-B64C-BAC57356C3DA}">
   <dimension ref="A1:J643"/>
   <sheetViews>
-    <sheetView topLeftCell="A313" workbookViewId="0">
-      <selection activeCell="D225" sqref="D225"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D185" sqref="D185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -61887,8 +68863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82A69958-4D66-4ACB-AF4F-EA31DFBE8DB6}">
   <dimension ref="A1:K430"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5:J13"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
